--- a/pigsaviorAPP_texture.xlsx
+++ b/pigsaviorAPP_texture.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syuanshih/Desktop/pigsaviorAPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syuanshih/Desktop/pigSaviorApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A_Character" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="291">
   <si>
     <t>編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -982,6 +982,78 @@
   </si>
   <si>
     <t>A_059_S1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_025.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲-chap1場景背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_026.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地圖-BOSS LOGO(黑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_027.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地圖-BOSS LOGO(紅)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_028.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地圖-鏟子按鈕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地圖-箭頭按鈕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_029.png</t>
+  </si>
+  <si>
+    <t>B_030.png</t>
+  </si>
+  <si>
+    <t>地圖-按鈕背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲-補救教學黑板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_031.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_032.png</t>
+  </si>
+  <si>
+    <t>B_033.png</t>
+  </si>
+  <si>
+    <t>遊戲-補救教學左箭頭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲-補救教學右箭頭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1409,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="124" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A51" zoomScale="124" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2478,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2845,103 +2917,184 @@
       <c r="A26" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>56</v>
+        <v>275</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="B29" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="B30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>105</v>
       </c>
